--- a/src/test/resources/Excel/Book1.xlsx
+++ b/src/test/resources/Excel/Book1.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="517">
   <si>
     <t>Rs. 3.30 Lakh</t>
   </si>
@@ -1585,6 +1585,18 @@
   </si>
   <si>
     <t>Rs. 7.06 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Dzire 2017-2020 Maruti Swift Dzire LXI 1.2</t>
+  </si>
+  <si>
+    <t>Rs. 5.81 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.26 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.24 Lakh</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1719,6 +1731,144 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2048,13 +2198,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="65">
+      <c r="A1" t="s" s="212">
         <v>20</v>
       </c>
-      <c r="B1" t="s" s="66">
+      <c r="B1" t="s" s="213">
         <v>21</v>
       </c>
-      <c r="C1" t="s" s="67">
+      <c r="C1" t="s" s="214">
         <v>22</v>
       </c>
     </row>
@@ -2691,52 +2841,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="68">
+      <c r="A1" t="s" s="215">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="69">
+      <c r="A2" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="70">
+      <c r="A3" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="71">
+      <c r="A4" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="72">
+      <c r="A5" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="73">
+      <c r="A6" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="74">
+      <c r="A7" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="75">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="76">
+      <c r="A9" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="77">
+      <c r="A10" t="s" s="0">
         <v>31</v>
       </c>
     </row>
@@ -2761,13 +2911,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="199">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="200">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="201">
         <v>35</v>
       </c>
     </row>
@@ -2921,13 +3071,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="202">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="203">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="204">
         <v>35</v>
       </c>
     </row>
@@ -2966,13 +3116,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>47</v>
+        <v>513</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>53</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2980,18 +3130,18 @@
         <v>47</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>443</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>55</v>
@@ -2999,32 +3149,32 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>55</v>
@@ -3032,10 +3182,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>52</v>
@@ -3049,7 +3199,7 @@
         <v>65</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3060,7 +3210,7 @@
         <v>67</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3068,54 +3218,54 @@
         <v>47</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3123,29 +3273,29 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>55</v>
@@ -3153,54 +3303,54 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>377</v>
+        <v>515</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>378</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>86</v>
@@ -3208,21 +3358,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s" s="0">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s" s="0">
-        <v>472</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>87</v>
+        <v>449</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>90</v>
@@ -3236,59 +3386,59 @@
         <v>75</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>70</v>
@@ -3296,13 +3446,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3310,18 +3460,18 @@
         <v>100</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>96</v>
@@ -3329,32 +3479,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>70</v>
@@ -3362,10 +3512,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>96</v>
@@ -3373,10 +3523,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>55</v>
@@ -3384,10 +3534,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>96</v>
@@ -3395,10 +3545,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s" s="0">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>96</v>
@@ -3406,10 +3556,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s" s="0">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>113</v>
+        <v>516</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>72</v>
@@ -3417,10 +3567,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s" s="0">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>473</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>70</v>
@@ -3428,10 +3578,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>55</v>
@@ -3439,7 +3589,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>116</v>
@@ -3450,10 +3600,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>55</v>

--- a/src/test/resources/Excel/Book1.xlsx
+++ b/src/test/resources/Excel/Book1.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7873" uniqueCount="555">
   <si>
     <t>Rs. 3.30 Lakh</t>
   </si>
@@ -1597,6 +1597,120 @@
   </si>
   <si>
     <t>Rs. 4.24 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.51 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.57 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.12 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift Vdi BSIII</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2014-2021 Maruti Swift VXI 2018</t>
+  </si>
+  <si>
+    <t>Rs. 5.26 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.89 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift 2004-2010 Maruti Swift 1.2 VDI BSII W ABS</t>
+  </si>
+  <si>
+    <t>Rs. 5.45 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.77 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 3.03 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 2.88 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.73 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.81 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.71 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.26 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 9.40 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 2014-2015 Honda City i DTEC VX</t>
+  </si>
+  <si>
+    <t>Rs. 5.86 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.61 Lakh</t>
+  </si>
+  <si>
+    <t>Toyota Innova Toyota Innova 2.5 EV (Diesel) PS 7 Seater BS IV</t>
+  </si>
+  <si>
+    <t>Rs. 16.30 Lakh</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 Mahindra XUV500 W11 Option BSIV</t>
+  </si>
+  <si>
+    <t>Rs. 18.00 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire Maruti Swift Dzire VXI CNG BSVI</t>
+  </si>
+  <si>
+    <t>Rs. 7.66 Lakh</t>
+  </si>
+  <si>
+    <t>Maruti Swift Maruti Swift LXI</t>
+  </si>
+  <si>
+    <t>Rs. 4.78 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 8.85 Lakh</t>
+  </si>
+  <si>
+    <t>Honda City 4th Generation Honda City i-VTEC S</t>
+  </si>
+  <si>
+    <t>Toyota Innova 2012-2013 Toyota Innova 2.5 G (Diesel) 7 Seater</t>
+  </si>
+  <si>
+    <t>Rs. 7.62 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.65 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 5.18 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.43 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 7.85 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 11.81 Lakh</t>
+  </si>
+  <si>
+    <t>Rs. 4.58 Lakh</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1866,6 +1980,193 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -2198,13 +2499,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="212">
+      <c r="A1" t="s" s="399">
         <v>20</v>
       </c>
-      <c r="B1" t="s" s="213">
+      <c r="B1" t="s" s="400">
         <v>21</v>
       </c>
-      <c r="C1" t="s" s="214">
+      <c r="C1" t="s" s="401">
         <v>22</v>
       </c>
     </row>
@@ -2317,13 +2618,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="369">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="370">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="371">
         <v>35</v>
       </c>
     </row>
@@ -2598,7 +2899,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4142EC7-1A34-484F-8B7D-7EFBF838A5FC}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -2612,13 +2913,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="372">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="373">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="374">
         <v>35</v>
       </c>
     </row>
@@ -2682,7 +2983,7 @@
         <v>344</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>345</v>
+        <v>538</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>52</v>
@@ -2794,33 +3095,41 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>356</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>357</v>
+        <v>511</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B22" t="s" s="0">
         <v>360</v>
       </c>
     </row>
@@ -2841,7 +3150,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="215">
+      <c r="A1" t="s" s="402">
         <v>32</v>
       </c>
     </row>
@@ -2911,13 +3220,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="199">
+      <c r="A1" t="s" s="348">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="200">
+      <c r="B1" t="s" s="349">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="201">
+      <c r="C1" t="s" s="350">
         <v>35</v>
       </c>
     </row>
@@ -3071,13 +3380,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="202">
+      <c r="A1" t="s" s="351">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="203">
+      <c r="B1" t="s" s="352">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="204">
+      <c r="C1" t="s" s="353">
         <v>35</v>
       </c>
     </row>
@@ -3116,13 +3425,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>513</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3342,12 +3651,12 @@
         <v>85</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
-        <v>73</v>
+        <v>472</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>87</v>
@@ -3364,7 +3673,7 @@
         <v>491</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3375,7 +3684,7 @@
         <v>449</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3386,26 +3695,26 @@
         <v>75</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>90</v>
@@ -3413,131 +3722,131 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s" s="0">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>103</v>
+        <v>549</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s" s="0">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>106</v>
+        <v>550</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>96</v>
@@ -3545,10 +3854,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s" s="0">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>96</v>
@@ -3556,10 +3865,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s" s="0">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>516</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>72</v>
@@ -3567,10 +3876,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s" s="0">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>70</v>
@@ -3578,10 +3887,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s" s="0">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>55</v>
@@ -3589,10 +3898,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s" s="0">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>116</v>
+        <v>516</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>57</v>
@@ -3600,10 +3909,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>55</v>
@@ -3611,10 +3920,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s" s="0">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>52</v>
@@ -3622,10 +3931,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s" s="0">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>70</v>
@@ -3633,10 +3942,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s" s="0">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>72</v>
@@ -3644,10 +3953,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s" s="0">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>52</v>
@@ -3655,10 +3964,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>55</v>
@@ -3666,10 +3975,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s" s="0">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>52</v>
@@ -3677,10 +3986,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s" s="0">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>55</v>
@@ -3688,10 +3997,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s" s="0">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>55</v>
@@ -3699,10 +4008,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="0">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>96</v>
@@ -3710,66 +4019,66 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="0">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s" s="0">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="0">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="0">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>380</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>113</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -3782,42 +4091,42 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>213</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
-        <v>385</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>126</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="0">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -3838,31 +4147,31 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="0">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
-        <v>376</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>358</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="0">
-        <v>379</v>
+        <v>541</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>124</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="0">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>119</v>
@@ -3870,90 +4179,90 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
-        <v>382</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>121</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="0">
-        <v>383</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>126</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s" s="0">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s" s="0">
-        <v>60</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s" s="0">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s" s="0">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="0">
-        <v>112</v>
+        <v>386</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="0">
-        <v>381</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="0">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -4043,7 +4352,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90083818-D5BF-480E-8432-6B93D2DECA7E}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A104" sqref="A104"/>
@@ -4057,13 +4366,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="354">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="355">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="356">
         <v>35</v>
       </c>
     </row>
@@ -4080,18 +4389,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>121</v>
@@ -4102,98 +4411,98 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>390</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>70</v>
@@ -4201,21 +4510,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>390</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>158</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>123</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>55</v>
@@ -4223,10 +4532,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>397</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>398</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>55</v>
@@ -4237,10 +4546,10 @@
         <v>153</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>163</v>
+        <v>474</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -4248,7 +4557,7 @@
         <v>153</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>474</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>52</v>
@@ -4256,164 +4565,164 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>164</v>
+        <v>405</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>404</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>405</v>
+        <v>517</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>391</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s" s="0">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s" s="0">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s" s="0">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>172</v>
+        <v>517</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
-        <v>165</v>
+        <v>394</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>148</v>
+        <v>395</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
-        <v>394</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>175</v>
+        <v>399</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>55</v>
@@ -4421,10 +4730,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>380</v>
+        <v>518</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>55</v>
@@ -4432,10 +4741,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>399</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>55</v>
@@ -4446,7 +4755,7 @@
         <v>153</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>403</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>55</v>
@@ -4454,13 +4763,13 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>177</v>
+        <v>551</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -4468,40 +4777,40 @@
         <v>153</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>148</v>
+        <v>519</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>52</v>
@@ -4509,10 +4818,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>55</v>
@@ -4520,10 +4829,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>55</v>
@@ -4531,13 +4840,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s" s="0">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -4545,29 +4854,29 @@
         <v>153</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s" s="0">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s" s="0">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>175</v>
+        <v>506</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>55</v>
@@ -4575,21 +4884,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s" s="0">
-        <v>153</v>
+        <v>521</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>187</v>
+        <v>443</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>188</v>
+        <v>491</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>55</v>
@@ -4597,35 +4906,35 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s" s="0">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>189</v>
+        <v>522</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s" s="0">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>388</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>139</v>
+        <v>388</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -4633,7 +4942,7 @@
         <v>147</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>72</v>
@@ -4641,10 +4950,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s" s="0">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>70</v>
@@ -4652,10 +4961,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>55</v>
@@ -4663,10 +4972,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s" s="0">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>90</v>
@@ -4674,10 +4983,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s" s="0">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>119</v>
+        <v>552</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>55</v>
@@ -4685,43 +4994,43 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="0">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="0">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s" s="0">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>362</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>72</v>
@@ -4729,54 +5038,57 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="0">
-        <v>389</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="0">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>90</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="0">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
-        <v>396</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>130</v>
+        <v>393</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -4784,63 +5096,66 @@
         <v>396</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>197</v>
+        <v>130</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
-        <v>153</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>475</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>166</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="0">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>400</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
-        <v>401</v>
+        <v>191</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>177</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="0">
-        <v>406</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>91</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="0">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>408</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -4848,39 +5163,39 @@
         <v>407</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>175</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>410</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="0">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>126</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="0">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>420</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
-        <v>169</v>
+        <v>419</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>188</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -4888,47 +5203,47 @@
         <v>169</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>113</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
-        <v>416</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>206</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>124</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s" s="0">
-        <v>150</v>
+        <v>401</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s" s="0">
-        <v>411</v>
+        <v>150</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>412</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s" s="0">
-        <v>171</v>
+        <v>411</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>132</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -4936,143 +5251,143 @@
         <v>171</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="0">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="0">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="0">
-        <v>171</v>
+        <v>418</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s" s="0">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>123</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s" s="0">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s" s="0">
-        <v>171</v>
+        <v>417</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s" s="0">
-        <v>414</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>415</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s" s="0">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>512</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s" s="0">
-        <v>480</v>
+        <v>171</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>129</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s" s="0">
-        <v>171</v>
+        <v>524</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>121</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s" s="0">
-        <v>193</v>
+        <v>397</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>74</v>
+        <v>525</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s" s="0">
-        <v>158</v>
+        <v>480</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>273</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s" s="0">
-        <v>416</v>
+        <v>171</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s" s="0">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s" s="0">
-        <v>416</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s" s="0">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>67</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -5080,46 +5395,70 @@
         <v>169</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s" s="0">
-        <v>145</v>
+        <v>416</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>129</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s" s="0">
-        <v>159</v>
+        <v>422</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s" s="0">
-        <v>423</v>
+        <v>169</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>306</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s" s="0">
-        <v>424</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
         <v>424</v>
       </c>
-      <c r="B109" t="s" s="0">
+      <c r="B110" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B112" t="s" s="0">
         <v>132</v>
       </c>
     </row>
@@ -5144,13 +5483,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="357">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="358">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="359">
         <v>35</v>
       </c>
     </row>
@@ -5159,51 +5498,51 @@
         <v>134</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>83</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>198</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>55</v>
@@ -5211,65 +5550,65 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>55</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>204</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>70</v>
@@ -5277,101 +5616,101 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>206</v>
+        <v>527</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>216</v>
+        <v>420</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5379,7 +5718,7 @@
         <v>134</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>135</v>
+        <v>528</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>57</v>
@@ -5387,10 +5726,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>80</v>
@@ -5398,10 +5737,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>83</v>
@@ -5409,24 +5748,24 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5735,7 +6074,7 @@
         <v>225</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>246</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -5847,13 +6186,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="360">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="361">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="362">
         <v>35</v>
       </c>
     </row>
@@ -6115,7 +6454,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0ECD73-4BCE-48DC-A963-477094445602}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
@@ -6129,13 +6468,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="363">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="364">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="365">
         <v>35</v>
       </c>
     </row>
@@ -6240,13 +6579,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6254,7 +6593,7 @@
         <v>263</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>126</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>70</v>
@@ -6262,43 +6601,43 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>529</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>267</v>
+        <v>530</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>55</v>
@@ -6306,35 +6645,35 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>270</v>
+        <v>531</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -6342,40 +6681,40 @@
         <v>254</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>254</v>
+        <v>448</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
-        <v>448</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>55</v>
@@ -6383,24 +6722,24 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>476</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -6408,7 +6747,7 @@
         <v>263</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>111</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>70</v>
@@ -6416,35 +6755,35 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s" s="0">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s" s="0">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -6455,84 +6794,84 @@
         <v>276</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s" s="0">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>280</v>
+        <v>532</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>281</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -6540,7 +6879,7 @@
         <v>272</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>282</v>
+        <v>553</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>55</v>
@@ -6628,7 +6967,7 @@
         <v>288</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>289</v>
+        <v>533</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>80</v>
@@ -6741,15 +7080,15 @@
         <v>300</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s" s="0">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>452</v>
+        <v>535</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>55</v>
@@ -6757,32 +7096,32 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="0">
-        <v>455</v>
+        <v>301</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>293</v>
+        <v>545</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="0">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s" s="0">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>55</v>
@@ -6790,101 +7129,101 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>454</v>
+        <v>293</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="0">
-        <v>457</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>458</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="0">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>221</v>
+        <v>432</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>198</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="0">
-        <v>269</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>188</v>
+        <v>454</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
-        <v>286</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>363</v>
+        <v>458</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s" s="0">
-        <v>428</v>
+        <v>546</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>46</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -6892,139 +7231,139 @@
         <v>366</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>367</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
-        <v>368</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>483</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
-        <v>369</v>
+        <v>478</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="0">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>253</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="0">
-        <v>372</v>
+        <v>254</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="0">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="0">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="0">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>70</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="0">
-        <v>266</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
-        <v>297</v>
+        <v>430</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
-        <v>250</v>
+        <v>464</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>443</v>
+        <v>554</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>70</v>
@@ -7032,10 +7371,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s" s="0">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>70</v>
@@ -7043,21 +7382,21 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s" s="0">
-        <v>247</v>
+        <v>436</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s" s="0">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>70</v>
@@ -7065,54 +7404,54 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s" s="0">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>313</v>
+        <v>439</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="0">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>367</v>
+        <v>440</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="0">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>447</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>113</v>
+        <v>444</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s" s="0">
-        <v>450</v>
+        <v>247</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>70</v>
@@ -7120,43 +7459,43 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s" s="0">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s" s="0">
-        <v>263</v>
+        <v>446</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>443</v>
+        <v>313</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s" s="0">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>53</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>96</v>
@@ -7164,10 +7503,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s" s="0">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>456</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>70</v>
@@ -7175,133 +7514,142 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s" s="0">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s" s="0">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>252</v>
+        <v>443</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s" s="0">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>113</v>
+        <v>53</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s" s="0">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>274</v>
+        <v>373</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s" s="0">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>137</v>
+        <v>456</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s" s="0">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>358</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s" s="0">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>75</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s" s="0">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>460</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>53</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s" s="0">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>410</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s" s="0">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>461</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s" s="0">
-        <v>462</v>
+        <v>370</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>67</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s" s="0">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s" s="0">
-        <v>463</v>
+        <v>263</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s" s="0">
-        <v>469</v>
+        <v>286</v>
       </c>
       <c r="B111" t="s" s="0">
         <v>461</v>
@@ -7309,18 +7657,18 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s" s="0">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s" s="0">
-        <v>285</v>
+        <v>462</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>119</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -7328,110 +7676,134 @@
         <v>265</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s" s="0">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s" s="0">
-        <v>265</v>
+        <v>469</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>51</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s" s="0">
-        <v>466</v>
+        <v>285</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s" s="0">
-        <v>471</v>
+        <v>285</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s" s="0">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s" s="0">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s" s="0">
-        <v>470</v>
+        <v>265</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>235</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s" s="0">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>367</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s" s="0">
-        <v>272</v>
+        <v>471</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>459</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s" s="0">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>235</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s" s="0">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>367</v>
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
         <v>272</v>
       </c>
-      <c r="B127" t="s" s="0">
+      <c r="B130" t="s" s="0">
         <v>459</v>
       </c>
     </row>
@@ -7456,13 +7828,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="366">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="367">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="368">
         <v>35</v>
       </c>
     </row>
@@ -7474,7 +7846,7 @@
         <v>304</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -7485,15 +7857,15 @@
         <v>306</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>439</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>80</v>
@@ -7501,10 +7873,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>308</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>80</v>
@@ -7512,10 +7884,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>83</v>
@@ -7523,10 +7895,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>83</v>
@@ -7534,10 +7906,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>198</v>
@@ -7556,10 +7928,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>113</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>80</v>
@@ -7567,10 +7939,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>52</v>
@@ -7578,10 +7950,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>57</v>
@@ -7589,10 +7961,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>57</v>
@@ -7600,10 +7972,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>80</v>
@@ -7611,10 +7983,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>70</v>
@@ -7622,10 +7994,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>55</v>
